--- a/Design/Excels/MissionTable.xlsx
+++ b/Design/Excels/MissionTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JH\UnityProjects\BeautifulDeathMatch\Beautiful-DeathMatch\Design\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281C1DD5-C50B-4825-910C-9A14AA223805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189F6C91-5DC1-42CE-A517-9290020DA1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2424" yWindow="1896" windowWidth="23064" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MissionData" sheetId="5" r:id="rId1"/>
@@ -31,79 +31,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ENUM_MISSION_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxProgression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission2</t>
+  </si>
+  <si>
+    <t>Mission3</t>
+  </si>
+  <si>
+    <t>Mission4</t>
+  </si>
+  <si>
+    <t>Mission5</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys.mission.name.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys.mission.name.2</t>
+  </si>
+  <si>
+    <t>sys.mission.name.3</t>
+  </si>
+  <si>
+    <t>sys.mission.name.4</t>
+  </si>
+  <si>
+    <t>sys.mission.name.5</t>
+  </si>
+  <si>
+    <t>sys.mission.content.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys.mission.content.2</t>
+  </si>
+  <si>
+    <t>sys.mission.content.3</t>
+  </si>
+  <si>
+    <t>sys.mission.content.4</t>
+  </si>
+  <si>
+    <t>sys.mission.content.5</t>
+  </si>
+  <si>
+    <t>nameKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENUM_MISSION_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxProgression</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mission1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mission2</t>
-  </si>
-  <si>
-    <t>Mission3</t>
-  </si>
-  <si>
-    <t>Mission4</t>
-  </si>
-  <si>
-    <t>Mission5</t>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys.mission.name.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys.mission.name.2</t>
-  </si>
-  <si>
-    <t>sys.mission.name.3</t>
-  </si>
-  <si>
-    <t>sys.mission.name.4</t>
-  </si>
-  <si>
-    <t>sys.mission.name.5</t>
-  </si>
-  <si>
-    <t>sys.mission.content.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys.mission.content.2</t>
-  </si>
-  <si>
-    <t>sys.mission.content.3</t>
-  </si>
-  <si>
-    <t>sys.mission.content.4</t>
-  </si>
-  <si>
-    <t>sys.mission.content.5</t>
-  </si>
-  <si>
-    <t>nameKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contentKey</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,7 +432,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -445,100 +445,100 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
